--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/29.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/29.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2602704716703042</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.089346442993608</v>
+        <v>-2.126649191583519</v>
       </c>
       <c r="F2" t="n">
-        <v>0.151968712696469</v>
+        <v>0.05676192481812736</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04073808879860238</v>
+        <v>-0.02553955146090208</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2634196205822921</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.07512004320846</v>
+        <v>-2.181152923099079</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07538524276195256</v>
+        <v>-0.02956746761014626</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04804493850604412</v>
+        <v>-0.0354086779313624</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2864431794823898</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.14698577670833</v>
+        <v>-2.327269789865581</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02476975556066148</v>
+        <v>-0.05932610734936075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08062690105792537</v>
+        <v>-0.01220424578448254</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3269347985441544</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.236211072509803</v>
+        <v>-2.467899810224058</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02568776218535186</v>
+        <v>-0.08359485107716598</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09630064260899697</v>
+        <v>-0.01346007245790679</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3718075604005904</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.311286208610722</v>
+        <v>-2.610652964458294</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01560821308141345</v>
+        <v>-0.04377678961634576</v>
       </c>
       <c r="G6" t="n">
-        <v>0.137283652562406</v>
+        <v>-0.006055635442185369</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4024045608199963</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.204667194949747</v>
+        <v>-2.534304313984326</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.006378283480185092</v>
+        <v>-0.03470848899445564</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09769614111739652</v>
+        <v>-0.01876150298020091</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4058317540943993</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.958804510628545</v>
+        <v>-2.343541253679866</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04924716816609909</v>
+        <v>-0.03442853540382828</v>
       </c>
       <c r="G8" t="n">
-        <v>0.16828775032354</v>
+        <v>0.01775749754008906</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.382433661573744</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.59537290673671</v>
+        <v>-1.949053098848697</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1743150624573489</v>
+        <v>-0.05551288327833189</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1368652469781568</v>
+        <v>0.01787582215137818</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3401011413266169</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.133963645332067</v>
+        <v>-1.544458558403812</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3120211230914952</v>
+        <v>-0.1317182023932645</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2000792556783558</v>
+        <v>0.06131620251140511</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2854824616887599</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4256298277080024</v>
+        <v>-1.024607307673847</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6222310487302947</v>
+        <v>-0.3307902120770631</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2375570515024937</v>
+        <v>0.07176658338680633</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2209114393364317</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3365124118601289</v>
+        <v>-0.4623629103858309</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.071957279571829</v>
+        <v>-0.6353516623284988</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3774216214116514</v>
+        <v>0.1533837286665244</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1469676015182891</v>
       </c>
       <c r="E13" t="n">
-        <v>1.150265529174004</v>
+        <v>0.1142213319332084</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.529683839930267</v>
+        <v>-0.9683280970682732</v>
       </c>
       <c r="G13" t="n">
-        <v>0.519331865270622</v>
+        <v>0.2579790255220489</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.06211004590949029</v>
       </c>
       <c r="E14" t="n">
-        <v>1.879684914513925</v>
+        <v>0.7281443081620871</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.078413004942222</v>
+        <v>-1.353589371901598</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7443883255459182</v>
+        <v>0.4139314731217901</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.03357635733637555</v>
       </c>
       <c r="E15" t="n">
-        <v>2.565620005205094</v>
+        <v>1.249814952270792</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.65233982287267</v>
+        <v>-1.787213086956307</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9357448386688538</v>
+        <v>0.5488062819744719</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1391555084608751</v>
       </c>
       <c r="E16" t="n">
-        <v>3.287206179293539</v>
+        <v>1.821863214516856</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.115729496714715</v>
+        <v>-2.185577897608887</v>
       </c>
       <c r="G16" t="n">
-        <v>1.148572999296028</v>
+        <v>0.7011650769468135</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2535763964621308</v>
       </c>
       <c r="E17" t="n">
-        <v>3.863160373553498</v>
+        <v>2.318842439868769</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.598202368690852</v>
+        <v>-2.618788696365437</v>
       </c>
       <c r="G17" t="n">
-        <v>1.378453932124401</v>
+        <v>0.8856215574536984</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3763884163611108</v>
       </c>
       <c r="E18" t="n">
-        <v>4.287599293137058</v>
+        <v>2.695823431594562</v>
       </c>
       <c r="F18" t="n">
-        <v>-4.008998277616572</v>
+        <v>-3.050467679342334</v>
       </c>
       <c r="G18" t="n">
-        <v>1.615932036902348</v>
+        <v>1.094640153533904</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5058816440113778</v>
       </c>
       <c r="E19" t="n">
-        <v>4.562594228662454</v>
+        <v>2.953335600841652</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.440077098647549</v>
+        <v>-3.442264254227014</v>
       </c>
       <c r="G19" t="n">
-        <v>1.815754249018547</v>
+        <v>1.27653069775371</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6394660158032386</v>
       </c>
       <c r="E20" t="n">
-        <v>4.925216467816245</v>
+        <v>3.271683698070301</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.804050617060676</v>
+        <v>-3.860700029549681</v>
       </c>
       <c r="G20" t="n">
-        <v>2.059502948274141</v>
+        <v>1.450203170775013</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.771827893926511</v>
       </c>
       <c r="E21" t="n">
-        <v>5.149147624442941</v>
+        <v>3.553431675328653</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.122449337705494</v>
+        <v>-4.188463777225628</v>
       </c>
       <c r="G21" t="n">
-        <v>2.305394908787828</v>
+        <v>1.65078717381647</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8980143544986944</v>
       </c>
       <c r="E22" t="n">
-        <v>5.331308973443223</v>
+        <v>3.742225301767893</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.410858868595288</v>
+        <v>-4.451531713917216</v>
       </c>
       <c r="G22" t="n">
-        <v>2.44714535342949</v>
+        <v>1.728791758927809</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.013422839690357</v>
       </c>
       <c r="E23" t="n">
-        <v>5.433470686798523</v>
+        <v>3.927233760487235</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.607577651828024</v>
+        <v>-4.692951431068648</v>
       </c>
       <c r="G23" t="n">
-        <v>2.592799290402341</v>
+        <v>1.822678678461668</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.114893620691899</v>
       </c>
       <c r="E24" t="n">
-        <v>5.465862354099259</v>
+        <v>4.026071406154258</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.820938120725829</v>
+        <v>-4.884073124731036</v>
       </c>
       <c r="G24" t="n">
-        <v>2.730997557022623</v>
+        <v>1.925067892229395</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.19866132288617</v>
       </c>
       <c r="E25" t="n">
-        <v>5.551820914756069</v>
+        <v>4.113229070861555</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.892865303733882</v>
+        <v>-4.992972021881695</v>
       </c>
       <c r="G25" t="n">
-        <v>2.819810546446614</v>
+        <v>1.965605660088778</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.262182068482415</v>
       </c>
       <c r="E26" t="n">
-        <v>5.581744842998682</v>
+        <v>4.139399547259461</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.906273189970834</v>
+        <v>-5.089135775301854</v>
       </c>
       <c r="G26" t="n">
-        <v>2.820488778239158</v>
+        <v>1.960790946266529</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.303510034894889</v>
       </c>
       <c r="E27" t="n">
-        <v>5.618144908987007</v>
+        <v>4.225062906308726</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.996119537501407</v>
+        <v>-5.155889763609898</v>
       </c>
       <c r="G27" t="n">
-        <v>2.801340928513329</v>
+        <v>1.975415624253593</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.32295291089476</v>
       </c>
       <c r="E28" t="n">
-        <v>5.582291331925049</v>
+        <v>4.178085595944236</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.906601174814756</v>
+        <v>-5.098658771788259</v>
       </c>
       <c r="G28" t="n">
-        <v>2.745440478648017</v>
+        <v>1.922920971447242</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.321904908646858</v>
       </c>
       <c r="E29" t="n">
-        <v>5.496053427598287</v>
+        <v>4.136258455774208</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.816700849304292</v>
+        <v>-5.069989755338056</v>
       </c>
       <c r="G29" t="n">
-        <v>2.627307382451392</v>
+        <v>1.883980585840262</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.303478821174516</v>
       </c>
       <c r="E30" t="n">
-        <v>5.36166350568362</v>
+        <v>4.048526245789414</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.734173854855035</v>
+        <v>-4.966073910116428</v>
       </c>
       <c r="G30" t="n">
-        <v>2.530178734520617</v>
+        <v>1.827485463315119</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.27046708317503</v>
       </c>
       <c r="E31" t="n">
-        <v>5.210001850044802</v>
+        <v>3.934446682410458</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.598241138588533</v>
+        <v>-4.885340844857657</v>
       </c>
       <c r="G31" t="n">
-        <v>2.380307805988731</v>
+        <v>1.744791198120264</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.226873056514274</v>
       </c>
       <c r="E32" t="n">
-        <v>4.995984344097969</v>
+        <v>3.75494214787809</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.410274564586963</v>
+        <v>-4.731849427188593</v>
       </c>
       <c r="G32" t="n">
-        <v>2.273367974051787</v>
+        <v>1.67554263424432</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.175893092705909</v>
       </c>
       <c r="E33" t="n">
-        <v>4.731820379950264</v>
+        <v>3.59470012815878</v>
       </c>
       <c r="F33" t="n">
-        <v>-5.225686036253562</v>
+        <v>-4.5794329947123</v>
       </c>
       <c r="G33" t="n">
-        <v>2.124182596360566</v>
+        <v>1.576060912342651</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.121861748875411</v>
       </c>
       <c r="E34" t="n">
-        <v>4.490843160249813</v>
+        <v>3.405829651714269</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.957374306543632</v>
+        <v>-4.372964476981577</v>
       </c>
       <c r="G34" t="n">
-        <v>1.934344175802056</v>
+        <v>1.4393911069383</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.066686964913532</v>
       </c>
       <c r="E35" t="n">
-        <v>4.19404234068932</v>
+        <v>3.224773478980255</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.770475093726372</v>
+        <v>-4.222596463098141</v>
       </c>
       <c r="G35" t="n">
-        <v>1.877294025461073</v>
+        <v>1.372682862681011</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.013039328375078</v>
       </c>
       <c r="E36" t="n">
-        <v>3.863983766467108</v>
+        <v>3.005550909978054</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.514884174611037</v>
+        <v>-4.023405518882377</v>
       </c>
       <c r="G36" t="n">
-        <v>1.761742723489123</v>
+        <v>1.28112584013233</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9610137406868305</v>
       </c>
       <c r="E37" t="n">
-        <v>3.562823233909219</v>
+        <v>2.758737969242478</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.3425123574329</v>
+        <v>-3.89246835791878</v>
       </c>
       <c r="G37" t="n">
-        <v>1.674294126619017</v>
+        <v>1.216870696836922</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9112654632537778</v>
       </c>
       <c r="E38" t="n">
-        <v>3.21244454242047</v>
+        <v>2.528069628820423</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.105871978704466</v>
+        <v>-3.73278899002377</v>
       </c>
       <c r="G38" t="n">
-        <v>1.535171220252785</v>
+        <v>1.137778013238264</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8626594258887201</v>
       </c>
       <c r="E39" t="n">
-        <v>2.944921135185236</v>
+        <v>2.322203102797651</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.961950521413919</v>
+        <v>-3.614572944615108</v>
       </c>
       <c r="G39" t="n">
-        <v>1.410141141043493</v>
+        <v>1.044142990943902</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8152411301767294</v>
       </c>
       <c r="E40" t="n">
-        <v>2.674625028553506</v>
+        <v>2.098345136652164</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.858430514711502</v>
+        <v>-3.519204832717767</v>
       </c>
       <c r="G40" t="n">
-        <v>1.265175804514692</v>
+        <v>0.9247784649009237</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7682220404485415</v>
       </c>
       <c r="E41" t="n">
-        <v>2.364760927938423</v>
+        <v>1.866642980683022</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.676700684590019</v>
+        <v>-3.370206700674307</v>
       </c>
       <c r="G41" t="n">
-        <v>1.183022538960112</v>
+        <v>0.8520350555472131</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7212399069823752</v>
       </c>
       <c r="E42" t="n">
-        <v>2.064171891054647</v>
+        <v>1.623268772722951</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.520816853066412</v>
+        <v>-3.292842837233891</v>
       </c>
       <c r="G42" t="n">
-        <v>1.048092227325846</v>
+        <v>0.7859178244256934</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6736289303636177</v>
       </c>
       <c r="E43" t="n">
-        <v>1.801562614711973</v>
+        <v>1.414541718726231</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.331165678155664</v>
+        <v>-3.157930518259589</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9292900481468291</v>
+        <v>0.7100302739833465</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6253187655984067</v>
       </c>
       <c r="E44" t="n">
-        <v>1.509197138312792</v>
+        <v>1.178201725931095</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.256440026602522</v>
+        <v>-3.085425282930149</v>
       </c>
       <c r="G44" t="n">
-        <v>0.90476696749682</v>
+        <v>0.6595825149681611</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5765713630811394</v>
       </c>
       <c r="E45" t="n">
-        <v>1.346686213675979</v>
+        <v>1.058918319338124</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.082258879736811</v>
+        <v>-2.980226774525321</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7814538149925744</v>
+        <v>0.5896014363594425</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5279587174410648</v>
       </c>
       <c r="E46" t="n">
-        <v>1.142866581444373</v>
+        <v>0.8916378150091413</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.976871295922191</v>
+        <v>-2.889748396693468</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6745274013105188</v>
+        <v>0.4900812894551386</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.47996396717578</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9441477158324119</v>
+        <v>0.7364130027767605</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.85933775175081</v>
+        <v>-2.833741820630401</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6190703637772017</v>
+        <v>0.4335703089924008</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4334245056001838</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7974343466440502</v>
+        <v>0.5919746377126692</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.757017459019556</v>
+        <v>-2.745124005822969</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5500730872200776</v>
+        <v>0.3745958589162776</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.388954707669087</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6816512748149361</v>
+        <v>0.4891231040719674</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.670114741155139</v>
+        <v>-2.669418211742293</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4770814401509305</v>
+        <v>0.3128749360327578</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3468891606011374</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5000370246616972</v>
+        <v>0.3409257978770778</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.568718478249158</v>
+        <v>-2.59250965408707</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4000746852667509</v>
+        <v>0.2549410106311669</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3073284070799535</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3839111774122507</v>
+        <v>0.2622503000213156</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.442871105333024</v>
+        <v>-2.501320413706468</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3428683952325204</v>
+        <v>0.1919118078960225</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2703625611405402</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2756057330800678</v>
+        <v>0.1658755140470014</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.372391721531403</v>
+        <v>-2.413983432320206</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3148962131555009</v>
+        <v>0.1598525473641144</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2356144492097876</v>
       </c>
       <c r="E53" t="n">
-        <v>0.152648774251043</v>
+        <v>0.05389529763741149</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.27105584077242</v>
+        <v>-2.324758136518733</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2903353174235334</v>
+        <v>0.1419086810541865</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2029048683217906</v>
       </c>
       <c r="E54" t="n">
-        <v>0.008748969144520242</v>
+        <v>-0.03565386604341512</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.194341237892403</v>
+        <v>-2.260334655116543</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2510979004469773</v>
+        <v>0.1012452695353935</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1716055546460274</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0212133841007281</v>
+        <v>-0.06358579335576919</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.133600457536417</v>
+        <v>-2.20643535499164</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1868439769929229</v>
+        <v>0.06947511140426388</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1411754490594876</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.08814790892909023</v>
+        <v>-0.1224657057269965</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.078758220045262</v>
+        <v>-2.174570049234938</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1472460968964087</v>
+        <v>0.02900077529526276</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1114339663991056</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.183773102391681</v>
+        <v>-0.2283454955277523</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.072942626392469</v>
+        <v>-2.126502200700423</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1363882890089398</v>
+        <v>0.008463526267802149</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.0820167769538559</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1929036149225994</v>
+        <v>-0.2644893948318423</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.042915621555486</v>
+        <v>-2.126424130853799</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1237287754423571</v>
+        <v>-0.01577167182278193</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.05281305121068176</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2820386424639141</v>
+        <v>-0.3347827528270559</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.007790289781565</v>
+        <v>-2.083609529108116</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08983914295952804</v>
+        <v>-0.04782910259265986</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.02365605008339572</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2902859898549013</v>
+        <v>-0.3670664641680074</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.045810915008008</v>
+        <v>-2.109781835268052</v>
       </c>
       <c r="G60" t="n">
-        <v>0.07013138605244479</v>
+        <v>-0.07512854216322619</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.005313301466270438</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3076510414425953</v>
+        <v>-0.4213365960643728</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.056044164122488</v>
+        <v>-2.084519530757824</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07048574996563542</v>
+        <v>-0.06113086263185825</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.03409173691533764</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3291196393434502</v>
+        <v>-0.4470795180678781</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.003983164917304</v>
+        <v>-2.032840951816961</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05000400371975888</v>
+        <v>-0.09561028840910271</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.06280434117320889</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.3114990309921988</v>
+        <v>-0.4782696416354203</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.047438793294249</v>
+        <v>-2.058988861149827</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03069696469729911</v>
+        <v>-0.1389866270980711</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.09113707935996605</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2841526275295229</v>
+        <v>-0.5241405558922883</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.117624805250355</v>
+        <v>-2.103747890012983</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04146938369002331</v>
+        <v>-0.1340224827100187</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1189311428717681</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2499336378812498</v>
+        <v>-0.5493388187314575</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.201086350656559</v>
+        <v>-2.174943930609784</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04374987710038429</v>
+        <v>-0.1604100908688466</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.145845456457793</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.2785944204023178</v>
+        <v>-0.6035156327642804</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.248266154685729</v>
+        <v>-2.221812065173135</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01242435114260404</v>
+        <v>-0.1769029558887909</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1713370477184479</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.2145198136272274</v>
+        <v>-0.6296446345561673</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.297700225536159</v>
+        <v>-2.222881866040151</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.002369274871920107</v>
+        <v>-0.1898308345531427</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.195153055714831</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.2230843197701236</v>
+        <v>-0.6972744689560222</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.392059223673821</v>
+        <v>-2.28836538957853</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.02458258591908438</v>
+        <v>-0.213310340925236</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2176348161341711</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.2094733299478139</v>
+        <v>-0.7008772703935729</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.412907532246423</v>
+        <v>-2.33910286091517</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0003967153971323355</v>
+        <v>-0.2139416088256702</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.239293377291081</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.1744827906434546</v>
+        <v>-0.7037347487641377</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.434474937296911</v>
+        <v>-2.356838744274327</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01414554729238706</v>
+        <v>-0.1998865967506879</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2606907430856511</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1868568613333192</v>
+        <v>-0.7424933780094465</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.54385384202017</v>
+        <v>-2.397647316914186</v>
       </c>
       <c r="G71" t="n">
-        <v>0.002743080240582114</v>
+        <v>-0.2271049168712468</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2821411219726075</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.1899546484505226</v>
+        <v>-0.736202656149467</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.642794564281564</v>
+        <v>-2.489067107310599</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.05055788770043067</v>
+        <v>-0.2417076377139488</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3041516885968973</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.07256443563817734</v>
+        <v>-0.7142607598034556</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.682086874119027</v>
+        <v>-2.502464624896047</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.07955839603844733</v>
+        <v>-0.2776966171661447</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3266707635553964</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.04766808353399837</v>
+        <v>-0.6770806052695707</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.738430126395659</v>
+        <v>-2.521240423009059</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.06670004833124477</v>
+        <v>-0.2722335576645123</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3502768891061239</v>
       </c>
       <c r="E75" t="n">
-        <v>0.001457977374673956</v>
+        <v>-0.6232544956258779</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.744836123263544</v>
+        <v>-2.544838863913118</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.07894664559966903</v>
+        <v>-0.2682965196961036</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3741321103280421</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1190555632171135</v>
+        <v>-0.5199534504464128</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.800102865545715</v>
+        <v>-2.54038400329015</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.05457970464290737</v>
+        <v>-0.2407238356623542</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3949321275663832</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1386181590031307</v>
+        <v>-0.4881558458848296</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.782590823074925</v>
+        <v>-2.533299164709045</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.04942831460709327</v>
+        <v>-0.2289060126296838</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4057344223174533</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2611920876471577</v>
+        <v>-0.3398938880982046</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.801223899749579</v>
+        <v>-2.548024479607773</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.06229886072783079</v>
+        <v>-0.2519195396047415</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4017026222662076</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3516604017878436</v>
+        <v>-0.2378931938015664</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.786035045136522</v>
+        <v>-2.549690782896649</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.02445572241832078</v>
+        <v>-0.21486441880959</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3868324011753344</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3963712469175368</v>
+        <v>-0.1167952731952698</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.72087660931885</v>
+        <v>-2.506505349379503</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.01563687935322061</v>
+        <v>-0.1987411657197551</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.367039720944638</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6048573822469416</v>
+        <v>0.09720271528990734</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.679024462401075</v>
+        <v>-2.487139148051399</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.02952965252818788</v>
+        <v>-0.1963655246838214</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3451847436084259</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7237107947628054</v>
+        <v>0.2647046208245498</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.672716662762146</v>
+        <v>-2.459118172320239</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02292901495823584</v>
+        <v>-0.1383779262626765</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3222982086336675</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8891572676168069</v>
+        <v>0.4221056300315676</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.609457519931868</v>
+        <v>-2.415242918517691</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04108635350502553</v>
+        <v>-0.1014136836483605</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2981606224034683</v>
       </c>
       <c r="E84" t="n">
-        <v>1.048072099943513</v>
+        <v>0.617391862074791</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.551749265180674</v>
+        <v>-2.320879041014615</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0363686170703793</v>
+        <v>-0.0808550873972137</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.27232413461137</v>
       </c>
       <c r="E85" t="n">
-        <v>1.202830932778859</v>
+        <v>0.7850261203962877</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.514664868193039</v>
+        <v>-2.244169317500012</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04413351720605882</v>
+        <v>-0.0443446257663982</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2441688044784893</v>
       </c>
       <c r="E86" t="n">
-        <v>1.38366265470383</v>
+        <v>1.001429636030559</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.478849106213039</v>
+        <v>-2.202611762269106</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03755979215206826</v>
+        <v>-0.05227237472276946</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2136938889849084</v>
       </c>
       <c r="E87" t="n">
-        <v>1.484863742993251</v>
+        <v>1.120406252523126</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.394999041335746</v>
+        <v>-2.087119622602801</v>
       </c>
       <c r="G87" t="n">
-        <v>0.09191958238791567</v>
+        <v>-0.003425047563370995</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1809085897189482</v>
       </c>
       <c r="E88" t="n">
-        <v>1.645857794906992</v>
+        <v>1.27748156408876</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.247766019730795</v>
+        <v>-1.922718553788746</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1146281490245994</v>
+        <v>0.04490323710011487</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1474432371670484</v>
       </c>
       <c r="E89" t="n">
-        <v>1.748196385258549</v>
+        <v>1.413751871449842</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.091439080835531</v>
+        <v>-1.772342610936512</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1088418315642905</v>
+        <v>0.05460280562243924</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1149949206814544</v>
       </c>
       <c r="E90" t="n">
-        <v>1.848321573474187</v>
+        <v>1.515384783578401</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.966281528204799</v>
+        <v>-1.62417397101343</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1220264868335533</v>
+        <v>0.0443579680151021</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.08621576059025096</v>
       </c>
       <c r="E91" t="n">
-        <v>1.872645210062899</v>
+        <v>1.55824329961281</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.69981145397831</v>
+        <v>-1.360163096955588</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1481762259284495</v>
+        <v>0.08437120409248169</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.06284295053785917</v>
       </c>
       <c r="E92" t="n">
-        <v>1.817691967008576</v>
+        <v>1.548646807684856</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.459349617249711</v>
+        <v>-1.125941358670799</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1288801654781712</v>
+        <v>0.1012361207252423</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.04596621871098116</v>
       </c>
       <c r="E93" t="n">
-        <v>1.891844293125575</v>
+        <v>1.58811355483587</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.234302915705243</v>
+        <v>-0.9416123515853547</v>
       </c>
       <c r="G93" t="n">
-        <v>0.106185017096376</v>
+        <v>0.07859037591826361</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03564807581880547</v>
       </c>
       <c r="E94" t="n">
-        <v>1.908598204195167</v>
+        <v>1.618480895410479</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9767077972461147</v>
+        <v>-0.7081347165261981</v>
       </c>
       <c r="G94" t="n">
-        <v>0.07734735757905106</v>
+        <v>0.0774303067910888</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.03073203685927629</v>
       </c>
       <c r="E95" t="n">
-        <v>1.824061978556533</v>
+        <v>1.568181347119743</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7235955957610847</v>
+        <v>-0.5130875733882599</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02435866902453329</v>
+        <v>0.0131422277791365</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02889244066618156</v>
       </c>
       <c r="E96" t="n">
-        <v>1.738157700839952</v>
+        <v>1.482940053178788</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.5111468057948476</v>
+        <v>-0.3301064909984285</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02278880920876834</v>
+        <v>-0.007887837155136536</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02737636763070902</v>
       </c>
       <c r="E97" t="n">
-        <v>1.641767056928043</v>
+        <v>1.425436121854304</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2788945013752779</v>
+        <v>-0.1686379207981779</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04275212287940902</v>
+        <v>-0.03630160180212156</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.02533408713325099</v>
       </c>
       <c r="E98" t="n">
-        <v>1.493237953885002</v>
+        <v>1.340492469203602</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1469918359803894</v>
+        <v>-0.07055901645302973</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1414769332212334</v>
+        <v>-0.1039710810459651</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.02349736605777192</v>
       </c>
       <c r="E99" t="n">
-        <v>1.315527196062951</v>
+        <v>1.248863476015065</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.007078472417091862</v>
+        <v>0.02202816211867896</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1544792222081485</v>
+        <v>-0.1163097763365783</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.02232267178635153</v>
       </c>
       <c r="E100" t="n">
-        <v>1.134541164206762</v>
+        <v>1.112603537305488</v>
       </c>
       <c r="F100" t="n">
-        <v>0.08472007871958159</v>
+        <v>0.07980167838228525</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2108639490907995</v>
+        <v>-0.1228615442462059</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02237660025725437</v>
       </c>
       <c r="E101" t="n">
-        <v>1.001724227717429</v>
+        <v>1.007701450349559</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1633162868873666</v>
+        <v>0.1281946146375064</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2328741565526067</v>
+        <v>-0.161469523084358</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.02497375530948981</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8204856887010663</v>
+        <v>0.8837021370839723</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1854820241217445</v>
+        <v>0.157386638068022</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2523422146337279</v>
+        <v>-0.159498869377785</v>
       </c>
     </row>
   </sheetData>
